--- a/Extensions/Actions/Log/Selection Review/Example Keybindings.xlsx
+++ b/Extensions/Actions/Log/Selection Review/Example Keybindings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="15180" windowHeight="6795"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="15180" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>f</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>Sweep</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Complex</t>
   </si>
 </sst>
 </file>
@@ -371,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -409,6 +418,30 @@
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -422,7 +455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -434,7 +467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
